--- a/data/제품 사용 경험 (가로 막대그래프).xlsx
+++ b/data/제품 사용 경험 (가로 막대그래프).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\22-P\Data Journalism\code\Grooming\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4173A08F-5BFB-4782-A482-9EF5933E263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9D24373C-84C7-44A5-8158-9C3A281B44A7}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25440" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,99 +52,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폼클렌저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클렌징 제품</t>
   </si>
   <si>
-    <t>비누</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필링젤/스크럽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색조 클렌징 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기초 화장품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기초 화장품</t>
   </si>
   <si>
-    <t>스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올인원 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자외선 차단 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에센스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스크팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>색조 화장품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BB크림/CC크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>색조 화장품</t>
   </si>
   <si>
-    <t>파운데이션/쿠션/컨실러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬러 립밤/립틴트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이브로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이라이너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,13 +86,89 @@
   </si>
   <si>
     <t>Type_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 폼클렌저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 비누</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 필링젤/스크럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 색조 클렌징 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 올인원 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 자외선 차단 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 에센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 마스크팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 립밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 미스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 아이크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. BB크림/CC크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 파운데이션/쿠션/컨실러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 컬러 립밤/립틴트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 아이브로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 아이라이너</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,33 +530,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA8922-708F-47A6-8FC8-9944D1743582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -574,15 +568,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>80.900000000000006</v>
@@ -591,253 +585,253 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>54.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>20.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>85.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>57.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>57.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>54.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>54.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>47.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>41.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>27.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>23.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>2.1</v>

--- a/data/제품 사용 경험 (가로 막대그래프).xlsx
+++ b/data/제품 사용 경험 (가로 막대그래프).xlsx
@@ -89,79 +89,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 폼클렌저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 비누</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 필링젤/스크럽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 색조 클렌징 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 로션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 올인원 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 자외선 차단 제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 에센스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 마스크팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 립밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13. 미스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14. 아이크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. BB크림/CC크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 파운데이션/쿠션/컨실러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17. 컬러 립밤/립틴트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18. 아이브로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19. 아이라이너</t>
+    <t>a. 폼클렌저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 비누</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c. 필링젤/스크럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d. 색조 클렌징 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e. 로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f. 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g. 올인원 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h. 자외선 차단 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i. 에센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j. 마스크팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k. 립밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l. 크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m. 미스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 아이크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o. BB크림/CC크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p. 파운데이션/쿠션/컨실러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q. 컬러 립밤/립틴트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r. 아이브로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s. 아이라이너</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
